--- a/biology/Zoologie/Gastrotheca_dendronastes/Gastrotheca_dendronastes.xlsx
+++ b/biology/Zoologie/Gastrotheca_dendronastes/Gastrotheca_dendronastes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrotheca dendronastes est une espèce d'amphibiens de la famille des Hemiphractidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrotheca dendronastes est une espèce d'amphibiens de la famille des Hemiphractidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre de 1 230 à 2 090 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre de 1 230 à 2 090 m d'altitude :
 en Colombie dans les départements d'Antioquia, de Risaralda, de Chocó, de Valle del Cauca et de Cauca sur le versant pacifique de la cordillère Occidentale et dans le département de Caldas sur la cordillère Centrale ;
 en Équateur dans la province de Pichincha.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duellman, 1983 : A new species of marsupial frog (Hylidae: Gastrotheca) from Colombia and Ecuador. Copeia, vol. 1983, no 4, p. 868-874.</t>
         </is>
